--- a/xlsx/country_comparison/duration_mean.xlsx
+++ b/xlsx/country_comparison/duration_mean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -29,19 +29,16 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration..G.comprehension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration..R.comprehension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration..G.R.comprehension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration..G.comprehension.1</t>
+    <t xml:space="preserve">Duration..GCS.comprehension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration..NR.comprehension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration..GCS.NR.comprehension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration..GCS.comprehension.1</t>
   </si>
   <si>
     <t xml:space="preserve">Duration..conjoint..a.</t>
@@ -416,252 +413,226 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2"/>
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.91194037558685</v>
+      </c>
       <c r="C2" t="n">
-        <v>0.0317573566308244</v>
+        <v>2.33803526703499</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0299179067460317</v>
-      </c>
-      <c r="E2"/>
-      <c r="F2" t="n">
-        <v>2.51958343023256</v>
+        <v>2.69804166666667</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.11321413043478</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3"/>
+        <v>6</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.875759037558685</v>
+      </c>
       <c r="C3" t="n">
-        <v>1.03112043010753</v>
+        <v>1.20245488029466</v>
       </c>
       <c r="D3" t="n">
-        <v>1.06382261904762</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3" t="n">
-        <v>1.13246589147287</v>
+        <v>1.29897486338798</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.35458115942029</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4"/>
+        <v>7</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.855020070422535</v>
+      </c>
       <c r="C4" t="n">
-        <v>0.878984946236559</v>
+        <v>1.39214834254144</v>
       </c>
       <c r="D4" t="n">
-        <v>1.32994702380952</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4" t="n">
-        <v>1.33964399224806</v>
+        <v>0.954958333333333</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.775421014492754</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5"/>
+        <v>8</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.91194037558685</v>
+      </c>
       <c r="C5" t="n">
-        <v>0.0317573566308244</v>
+        <v>2.33803526703499</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0299179067460317</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5" t="n">
-        <v>2.51958343023256</v>
+        <v>2.69804166666667</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.11321413043478</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.788449502487562</v>
+        <v>0.623134389671361</v>
       </c>
       <c r="C6" t="n">
-        <v>1.24479516129032</v>
+        <v>1.00330709023941</v>
       </c>
       <c r="D6" t="n">
-        <v>0.551963793103448</v>
+        <v>0.714178415300546</v>
       </c>
       <c r="E6" t="n">
-        <v>0.589152941176471</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.511865697674419</v>
+        <v>0.791133695652174</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.788470895522388</v>
+        <v>0.623139319248826</v>
       </c>
       <c r="C7" t="n">
-        <v>1.24479892473118</v>
+        <v>1.00331712707182</v>
       </c>
       <c r="D7" t="n">
-        <v>0.551964367816092</v>
+        <v>0.714198360655738</v>
       </c>
       <c r="E7" t="n">
-        <v>0.589123284313726</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.511887984496124</v>
+        <v>0.791136594202899</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>0.610332407407407</v>
+        <v>0.532985093896714</v>
       </c>
       <c r="C8" t="n">
-        <v>0.518374193548387</v>
+        <v>0.732824217311234</v>
       </c>
       <c r="D8" t="n">
-        <v>0.495086904761905</v>
+        <v>0.634244945355191</v>
       </c>
       <c r="E8" t="n">
-        <v>0.437955555555556</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.351556201550388</v>
+        <v>0.729903260869565</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>1.02060740740741</v>
+        <v>1.10308392018779</v>
       </c>
       <c r="C9" t="n">
-        <v>1.20331827956989</v>
+        <v>1.21163738489871</v>
       </c>
       <c r="D9" t="n">
-        <v>0.896876785714286</v>
+        <v>0.812130191256831</v>
       </c>
       <c r="E9" t="n">
-        <v>1.06779777777778</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.941241472868217</v>
+        <v>1.04103985507246</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>2.03469427860697</v>
+        <v>1.97278098591549</v>
       </c>
       <c r="C10" t="n">
-        <v>1.73772150537634</v>
+        <v>2.05312651933702</v>
       </c>
       <c r="D10" t="n">
-        <v>1.70567413793103</v>
+        <v>2.08154467213115</v>
       </c>
       <c r="E10" t="n">
-        <v>1.36799828431373</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.5831523255814</v>
+        <v>2.24473369565217</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>0.794200995024876</v>
+        <v>0.650554694835681</v>
       </c>
       <c r="C11" t="n">
-        <v>0.558617204301075</v>
+        <v>0.701980847145488</v>
       </c>
       <c r="D11" t="n">
-        <v>0.498095977011494</v>
+        <v>0.648406010928962</v>
       </c>
       <c r="E11" t="n">
-        <v>0.419216176470588</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.40610291005291</v>
+        <v>0.662447101449275</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>1.1456763681592</v>
+        <v>1.45752030516432</v>
       </c>
       <c r="C12" t="n">
-        <v>1.26939139784946</v>
+        <v>1.2503755985267</v>
       </c>
       <c r="D12" t="n">
-        <v>1.44496551724138</v>
+        <v>1.44737554644809</v>
       </c>
       <c r="E12" t="n">
-        <v>0.977727941176471</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.09013430232558</v>
+        <v>1.48715869565217</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>0.397218407960199</v>
+        <v>0.582526643192488</v>
       </c>
       <c r="C13" t="n">
-        <v>0.455446774193548</v>
+        <v>0.605676335174954</v>
       </c>
       <c r="D13" t="n">
-        <v>0.51968908045977</v>
+        <v>0.513155191256831</v>
       </c>
       <c r="E13" t="n">
-        <v>0.507036274509804</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.717023062015504</v>
+        <v>0.623509420289855</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>165.41815920398</v>
+        <v>33.9038732394366</v>
       </c>
       <c r="C14" t="n">
-        <v>20.8801075268817</v>
+        <v>28.9050644567219</v>
       </c>
       <c r="D14" t="n">
-        <v>20.3005747126437</v>
+        <v>29.5090163934426</v>
       </c>
       <c r="E14" t="n">
-        <v>199.986274509804</v>
-      </c>
-      <c r="F14" t="n">
-        <v>17.6793604651163</v>
+        <v>29.3655797101449</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/duration_mean.xlsx
+++ b/xlsx/country_comparison/duration_mean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Duration..GCS.comprehension</t>
@@ -413,226 +416,268 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>1.91194037558685</v>
+        <v>2.15651892473118</v>
       </c>
       <c r="C2" t="n">
-        <v>2.33803526703499</v>
+        <v>2.36731103038309</v>
       </c>
       <c r="D2" t="n">
-        <v>2.69804166666667</v>
+        <v>2.65055709023941</v>
       </c>
       <c r="E2" t="n">
-        <v>2.11321413043478</v>
+        <v>2.64817456004141</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.27417668053979</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.875759037558685</v>
+        <v>0.933493978494624</v>
       </c>
       <c r="C3" t="n">
-        <v>1.20245488029466</v>
+        <v>1.38797399823866</v>
       </c>
       <c r="D3" t="n">
-        <v>1.29897486338798</v>
+        <v>1.34437298956415</v>
       </c>
       <c r="E3" t="n">
-        <v>1.35458115942029</v>
+        <v>1.14501042960663</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.06284162567789</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.855020070422535</v>
+        <v>0.882776505376344</v>
       </c>
       <c r="C4" t="n">
-        <v>1.39214834254144</v>
+        <v>1.24606607221488</v>
       </c>
       <c r="D4" t="n">
-        <v>0.954958333333333</v>
+        <v>1.10275755064457</v>
       </c>
       <c r="E4" t="n">
-        <v>0.775421014492754</v>
+        <v>0.986183203933747</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.995629940723925</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>1.91194037558685</v>
+        <v>2.15651892473118</v>
       </c>
       <c r="C5" t="n">
-        <v>2.33803526703499</v>
+        <v>2.36731103038309</v>
       </c>
       <c r="D5" t="n">
-        <v>2.69804166666667</v>
+        <v>2.65055709023941</v>
       </c>
       <c r="E5" t="n">
-        <v>2.11321413043478</v>
+        <v>2.64817456004141</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.27417668053979</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.623134389671361</v>
+        <v>0.704328978494624</v>
       </c>
       <c r="C6" t="n">
-        <v>1.00330709023941</v>
+        <v>0.826496125055042</v>
       </c>
       <c r="D6" t="n">
-        <v>0.714178415300546</v>
+        <v>0.745088888888889</v>
       </c>
       <c r="E6" t="n">
-        <v>0.791133695652174</v>
+        <v>0.777090553830228</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.02290541051835</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.623139319248826</v>
+        <v>0.704325967741935</v>
       </c>
       <c r="C7" t="n">
-        <v>1.00331712707182</v>
+        <v>0.826505019815059</v>
       </c>
       <c r="D7" t="n">
-        <v>0.714198360655738</v>
+        <v>0.74509057704113</v>
       </c>
       <c r="E7" t="n">
-        <v>0.791136594202899</v>
+        <v>0.777091692546584</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.02291473073528</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>0.532985093896714</v>
+        <v>0.556024139784946</v>
       </c>
       <c r="C8" t="n">
-        <v>0.732824217311234</v>
+        <v>0.636812923822105</v>
       </c>
       <c r="D8" t="n">
-        <v>0.634244945355191</v>
+        <v>0.59724861878453</v>
       </c>
       <c r="E8" t="n">
-        <v>0.729903260869565</v>
+        <v>0.669108592132505</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.465818974650019</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>1.10308392018779</v>
+        <v>1.12643841397849</v>
       </c>
       <c r="C9" t="n">
-        <v>1.21163738489871</v>
+        <v>1.33464341699692</v>
       </c>
       <c r="D9" t="n">
-        <v>0.812130191256831</v>
+        <v>1.05891546961326</v>
       </c>
       <c r="E9" t="n">
-        <v>1.04103985507246</v>
+        <v>1.23745675465839</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.65926997729852</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>1.97278098591549</v>
+        <v>2.12110733870968</v>
       </c>
       <c r="C10" t="n">
-        <v>2.05312651933702</v>
+        <v>2.16423117569353</v>
       </c>
       <c r="D10" t="n">
-        <v>2.08154467213115</v>
+        <v>2.06386559238797</v>
       </c>
       <c r="E10" t="n">
-        <v>2.24473369565217</v>
+        <v>2.05105292443064</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.62786112372304</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>0.650554694835681</v>
+        <v>0.649571989247312</v>
       </c>
       <c r="C11" t="n">
-        <v>0.701980847145488</v>
+        <v>0.714663276089828</v>
       </c>
       <c r="D11" t="n">
-        <v>0.648406010928962</v>
+        <v>0.691084346224678</v>
       </c>
       <c r="E11" t="n">
-        <v>0.662447101449275</v>
+        <v>0.6482908126294</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.53391741255144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>1.45752030516432</v>
+        <v>1.80729916666667</v>
       </c>
       <c r="C12" t="n">
-        <v>1.2503755985267</v>
+        <v>1.33431296785557</v>
       </c>
       <c r="D12" t="n">
-        <v>1.44737554644809</v>
+        <v>1.48124748311848</v>
       </c>
       <c r="E12" t="n">
-        <v>1.48715869565217</v>
+        <v>1.59880652173913</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.2529867890024</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.582526643192488</v>
+        <v>0.671961021505376</v>
       </c>
       <c r="C13" t="n">
-        <v>0.605676335174954</v>
+        <v>0.652076508146191</v>
       </c>
       <c r="D13" t="n">
-        <v>0.513155191256831</v>
+        <v>0.715021086556169</v>
       </c>
       <c r="E13" t="n">
-        <v>0.623509420289855</v>
+        <v>0.718938768115942</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.785257296002018</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>33.9038732394366</v>
+        <v>39.758064516129</v>
       </c>
       <c r="C14" t="n">
-        <v>28.9050644567219</v>
+        <v>60.6833993835315</v>
       </c>
       <c r="D14" t="n">
-        <v>29.5090163934426</v>
+        <v>37.5023327194598</v>
       </c>
       <c r="E14" t="n">
-        <v>29.3655797101449</v>
+        <v>42.0912525879917</v>
+      </c>
+      <c r="F14" t="n">
+        <v>21.8948164964056</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/duration_mean.xlsx
+++ b/xlsx/country_comparison/duration_mean.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -27,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Duration..GCS.comprehension</t>
@@ -419,265 +422,307 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2.15651892473118</v>
+        <v>2.29932197363383</v>
       </c>
       <c r="C2" t="n">
-        <v>2.36731103038309</v>
+        <v>2.40948539097233</v>
       </c>
       <c r="D2" t="n">
-        <v>2.65055709023941</v>
+        <v>2.27729400333717</v>
       </c>
       <c r="E2" t="n">
-        <v>2.64817456004141</v>
+        <v>2.34488994124181</v>
       </c>
       <c r="F2" t="n">
-        <v>2.27417668053979</v>
+        <v>2.77907551609844</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.57196062368957</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.933493978494624</v>
+        <v>1.08312312460745</v>
       </c>
       <c r="C3" t="n">
-        <v>1.38797399823866</v>
+        <v>1.2006466322254</v>
       </c>
       <c r="D3" t="n">
-        <v>1.34437298956415</v>
+        <v>0.945750613197785</v>
       </c>
       <c r="E3" t="n">
-        <v>1.14501042960663</v>
+        <v>1.47298170332624</v>
       </c>
       <c r="F3" t="n">
-        <v>1.06284162567789</v>
+        <v>1.28027134675618</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.10119627104023</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.882776505376344</v>
+        <v>1.00621511477167</v>
       </c>
       <c r="C4" t="n">
-        <v>1.24606607221488</v>
+        <v>1.04147858177604</v>
       </c>
       <c r="D4" t="n">
-        <v>1.10275755064457</v>
+        <v>0.914498654536079</v>
       </c>
       <c r="E4" t="n">
-        <v>0.986183203933747</v>
+        <v>1.19430001143374</v>
       </c>
       <c r="F4" t="n">
-        <v>0.995629940723925</v>
+        <v>1.13022484548394</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.913123844297814</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>2.15651892473118</v>
+        <v>2.29932197363383</v>
       </c>
       <c r="C5" t="n">
-        <v>2.36731103038309</v>
+        <v>2.40948539097233</v>
       </c>
       <c r="D5" t="n">
-        <v>2.65055709023941</v>
+        <v>2.27729400333717</v>
       </c>
       <c r="E5" t="n">
-        <v>2.64817456004141</v>
+        <v>2.34488994124181</v>
       </c>
       <c r="F5" t="n">
-        <v>2.27417668053979</v>
+        <v>2.77907551609844</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.57196062368957</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.704328978494624</v>
+        <v>0.908190321329991</v>
       </c>
       <c r="C6" t="n">
-        <v>0.826496125055042</v>
+        <v>0.74800725319312</v>
       </c>
       <c r="D6" t="n">
-        <v>0.745088888888889</v>
+        <v>0.708630987690666</v>
       </c>
       <c r="E6" t="n">
-        <v>0.777090553830228</v>
+        <v>0.795137045687008</v>
       </c>
       <c r="F6" t="n">
-        <v>1.02290541051835</v>
+        <v>0.788120861242052</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.729529329317616</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.704325967741935</v>
+        <v>0.908203413670046</v>
       </c>
       <c r="C7" t="n">
-        <v>0.826505019815059</v>
+        <v>0.748010845620137</v>
       </c>
       <c r="D7" t="n">
-        <v>0.74509057704113</v>
+        <v>0.708633397841182</v>
       </c>
       <c r="E7" t="n">
-        <v>0.777091692546584</v>
+        <v>0.795141256663186</v>
       </c>
       <c r="F7" t="n">
-        <v>1.02291473073528</v>
+        <v>0.788123195921034</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.729536149606792</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.556024139784946</v>
+        <v>0.482021679097877</v>
       </c>
       <c r="C8" t="n">
-        <v>0.636812923822105</v>
+        <v>0.613546119851205</v>
       </c>
       <c r="D8" t="n">
-        <v>0.59724861878453</v>
+        <v>0.561789801089586</v>
       </c>
       <c r="E8" t="n">
-        <v>0.669108592132505</v>
+        <v>0.612670916711822</v>
       </c>
       <c r="F8" t="n">
-        <v>0.465818974650019</v>
+        <v>0.620455535223717</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.65758768910006</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>1.12643841397849</v>
+        <v>1.66762980246066</v>
       </c>
       <c r="C9" t="n">
-        <v>1.33464341699692</v>
+        <v>1.23075989672815</v>
       </c>
       <c r="D9" t="n">
-        <v>1.05891546961326</v>
+        <v>1.17520981088308</v>
       </c>
       <c r="E9" t="n">
-        <v>1.23745675465839</v>
+        <v>1.46834959882932</v>
       </c>
       <c r="F9" t="n">
-        <v>1.65926997729852</v>
+        <v>1.09013758672656</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.07524396521756</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>2.12110733870968</v>
+        <v>1.64777877110278</v>
       </c>
       <c r="C10" t="n">
-        <v>2.16423117569353</v>
+        <v>2.10800014111522</v>
       </c>
       <c r="D10" t="n">
-        <v>2.06386559238797</v>
+        <v>2.15617434989543</v>
       </c>
       <c r="E10" t="n">
-        <v>2.05105292443064</v>
+        <v>2.20400596970064</v>
       </c>
       <c r="F10" t="n">
-        <v>1.62786112372304</v>
+        <v>2.11511067468518</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.95716002055314</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.649571989247312</v>
+        <v>0.539624328659666</v>
       </c>
       <c r="C11" t="n">
-        <v>0.714663276089828</v>
+        <v>0.67437726095713</v>
       </c>
       <c r="D11" t="n">
-        <v>0.691084346224678</v>
+        <v>0.683851158975002</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6482908126294</v>
+        <v>0.690130038916715</v>
       </c>
       <c r="F11" t="n">
-        <v>0.53391741255144</v>
+        <v>0.719823344569799</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.625941863592038</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>1.80729916666667</v>
+        <v>1.24396865120995</v>
       </c>
       <c r="C12" t="n">
-        <v>1.33431296785557</v>
+        <v>1.5581107558434</v>
       </c>
       <c r="D12" t="n">
-        <v>1.48124748311848</v>
+        <v>1.62238637246617</v>
       </c>
       <c r="E12" t="n">
-        <v>1.59880652173913</v>
+        <v>1.4225610179326</v>
       </c>
       <c r="F12" t="n">
-        <v>1.2529867890024</v>
+        <v>1.52768422045322</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.9414763433329</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0.671961021505376</v>
+        <v>0.787453541453937</v>
       </c>
       <c r="C13" t="n">
-        <v>0.652076508146191</v>
+        <v>0.677473499384291</v>
       </c>
       <c r="D13" t="n">
-        <v>0.715021086556169</v>
+        <v>0.716327056307005</v>
       </c>
       <c r="E13" t="n">
-        <v>0.718938768115942</v>
+        <v>0.661454651423632</v>
       </c>
       <c r="F13" t="n">
-        <v>0.785257296002018</v>
+        <v>0.783520584406229</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.649796909351213</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>39.758064516129</v>
+        <v>21.3480320740067</v>
       </c>
       <c r="C14" t="n">
-        <v>60.6833993835315</v>
+        <v>50.1556655858579</v>
       </c>
       <c r="D14" t="n">
-        <v>37.5023327194598</v>
+        <v>37.8346836277125</v>
       </c>
       <c r="E14" t="n">
-        <v>42.0912525879917</v>
+        <v>61.6808612704805</v>
       </c>
       <c r="F14" t="n">
-        <v>21.8948164964056</v>
+        <v>36.8160355164339</v>
+      </c>
+      <c r="G14" t="n">
+        <v>42.8944679856808</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/duration_mean.xlsx
+++ b/xlsx/country_comparison/duration_mean.xlsx
@@ -431,22 +431,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2.29932197363383</v>
+        <v>2.24868110890695</v>
       </c>
       <c r="C2" t="n">
-        <v>2.40948539097233</v>
+        <v>2.43443100567682</v>
       </c>
       <c r="D2" t="n">
-        <v>2.27729400333717</v>
+        <v>2.24701697188601</v>
       </c>
       <c r="E2" t="n">
-        <v>2.34488994124181</v>
+        <v>2.40950596325255</v>
       </c>
       <c r="F2" t="n">
-        <v>2.77907551609844</v>
+        <v>2.80524622711549</v>
       </c>
       <c r="G2" t="n">
-        <v>2.57196062368957</v>
+        <v>2.39336203119393</v>
       </c>
     </row>
     <row r="3">
@@ -454,22 +454,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>1.08312312460745</v>
+        <v>1.0518516917749</v>
       </c>
       <c r="C3" t="n">
-        <v>1.2006466322254</v>
+        <v>1.17299371460358</v>
       </c>
       <c r="D3" t="n">
-        <v>0.945750613197785</v>
+        <v>0.957654441169417</v>
       </c>
       <c r="E3" t="n">
-        <v>1.47298170332624</v>
+        <v>1.36379123654585</v>
       </c>
       <c r="F3" t="n">
-        <v>1.28027134675618</v>
+        <v>1.27694897894489</v>
       </c>
       <c r="G3" t="n">
-        <v>1.10119627104023</v>
+        <v>1.06068355456383</v>
       </c>
     </row>
     <row r="4">
@@ -477,22 +477,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>1.00621511477167</v>
+        <v>0.979468862297182</v>
       </c>
       <c r="C4" t="n">
-        <v>1.04147858177604</v>
+        <v>1.02968415969925</v>
       </c>
       <c r="D4" t="n">
-        <v>0.914498654536079</v>
+        <v>0.904120339166785</v>
       </c>
       <c r="E4" t="n">
-        <v>1.19430001143374</v>
+        <v>1.18738002526439</v>
       </c>
       <c r="F4" t="n">
-        <v>1.13022484548394</v>
+        <v>1.12454233794203</v>
       </c>
       <c r="G4" t="n">
-        <v>0.913123844297814</v>
+        <v>0.894255980262924</v>
       </c>
     </row>
     <row r="5">
@@ -500,22 +500,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>2.29932197363383</v>
+        <v>2.24868110890695</v>
       </c>
       <c r="C5" t="n">
-        <v>2.40948539097233</v>
+        <v>2.43443100567682</v>
       </c>
       <c r="D5" t="n">
-        <v>2.27729400333717</v>
+        <v>2.24701697188601</v>
       </c>
       <c r="E5" t="n">
-        <v>2.34488994124181</v>
+        <v>2.40950596325255</v>
       </c>
       <c r="F5" t="n">
-        <v>2.77907551609844</v>
+        <v>2.80524622711549</v>
       </c>
       <c r="G5" t="n">
-        <v>2.57196062368957</v>
+        <v>2.39336203119393</v>
       </c>
     </row>
     <row r="6">
@@ -523,22 +523,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.908190321329991</v>
+        <v>0.886731723352585</v>
       </c>
       <c r="C6" t="n">
-        <v>0.74800725319312</v>
+        <v>0.743110281293734</v>
       </c>
       <c r="D6" t="n">
-        <v>0.708630987690666</v>
+        <v>0.703287030697029</v>
       </c>
       <c r="E6" t="n">
-        <v>0.795137045687008</v>
+        <v>0.83189866167202</v>
       </c>
       <c r="F6" t="n">
-        <v>0.788120861242052</v>
+        <v>0.789592174663271</v>
       </c>
       <c r="G6" t="n">
-        <v>0.729529329317616</v>
+        <v>0.664324859025918</v>
       </c>
     </row>
     <row r="7">
@@ -546,22 +546,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.908203413670046</v>
+        <v>0.886744543444676</v>
       </c>
       <c r="C7" t="n">
-        <v>0.748010845620137</v>
+        <v>0.743116889711654</v>
       </c>
       <c r="D7" t="n">
-        <v>0.708633397841182</v>
+        <v>0.703296829981412</v>
       </c>
       <c r="E7" t="n">
-        <v>0.795141256663186</v>
+        <v>0.831901632526138</v>
       </c>
       <c r="F7" t="n">
-        <v>0.788123195921034</v>
+        <v>0.789595605395332</v>
       </c>
       <c r="G7" t="n">
-        <v>0.729536149606792</v>
+        <v>0.664339410737752</v>
       </c>
     </row>
     <row r="8">
@@ -569,22 +569,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.482021679097877</v>
+        <v>0.460733437592279</v>
       </c>
       <c r="C8" t="n">
-        <v>0.613546119851205</v>
+        <v>0.605195845539918</v>
       </c>
       <c r="D8" t="n">
-        <v>0.561789801089586</v>
+        <v>0.548485462361503</v>
       </c>
       <c r="E8" t="n">
-        <v>0.612670916711822</v>
+        <v>0.637914744320109</v>
       </c>
       <c r="F8" t="n">
-        <v>0.620455535223717</v>
+        <v>0.631040733125385</v>
       </c>
       <c r="G8" t="n">
-        <v>0.65758768910006</v>
+        <v>0.612963590565609</v>
       </c>
     </row>
     <row r="9">
@@ -592,22 +592,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>1.66762980246066</v>
+        <v>1.65092848104108</v>
       </c>
       <c r="C9" t="n">
-        <v>1.23075989672815</v>
+        <v>1.21899920316964</v>
       </c>
       <c r="D9" t="n">
-        <v>1.17520981088308</v>
+        <v>1.15666333808141</v>
       </c>
       <c r="E9" t="n">
-        <v>1.46834959882932</v>
+        <v>1.37594357871119</v>
       </c>
       <c r="F9" t="n">
-        <v>1.09013758672656</v>
+        <v>1.09883025762637</v>
       </c>
       <c r="G9" t="n">
-        <v>1.07524396521756</v>
+        <v>1.14829490719684</v>
       </c>
     </row>
     <row r="10">
@@ -615,22 +615,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>1.64777877110278</v>
+        <v>1.61377668013368</v>
       </c>
       <c r="C10" t="n">
-        <v>2.10800014111522</v>
+        <v>2.10875566120335</v>
       </c>
       <c r="D10" t="n">
-        <v>2.15617434989543</v>
+        <v>2.18943531380958</v>
       </c>
       <c r="E10" t="n">
-        <v>2.20400596970064</v>
+        <v>2.20464749984571</v>
       </c>
       <c r="F10" t="n">
-        <v>2.11511067468518</v>
+        <v>2.11990487315432</v>
       </c>
       <c r="G10" t="n">
-        <v>1.95716002055314</v>
+        <v>1.92151866924368</v>
       </c>
     </row>
     <row r="11">
@@ -638,22 +638,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.539624328659666</v>
+        <v>0.54186408512345</v>
       </c>
       <c r="C11" t="n">
-        <v>0.67437726095713</v>
+        <v>0.66737945357645</v>
       </c>
       <c r="D11" t="n">
-        <v>0.683851158975002</v>
+        <v>0.689114540688384</v>
       </c>
       <c r="E11" t="n">
-        <v>0.690130038916715</v>
+        <v>0.694018161811405</v>
       </c>
       <c r="F11" t="n">
-        <v>0.719823344569799</v>
+        <v>0.722279309336088</v>
       </c>
       <c r="G11" t="n">
-        <v>0.625941863592038</v>
+        <v>0.598130838525481</v>
       </c>
     </row>
     <row r="12">
@@ -661,22 +661,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>1.24396865120995</v>
+        <v>1.23202636934796</v>
       </c>
       <c r="C12" t="n">
-        <v>1.5581107558434</v>
+        <v>1.50864409923911</v>
       </c>
       <c r="D12" t="n">
-        <v>1.62238637246617</v>
+        <v>1.62829069056259</v>
       </c>
       <c r="E12" t="n">
-        <v>1.4225610179326</v>
+        <v>1.42799160201927</v>
       </c>
       <c r="F12" t="n">
-        <v>1.52768422045322</v>
+        <v>1.53679298893415</v>
       </c>
       <c r="G12" t="n">
-        <v>1.9414763433329</v>
+        <v>1.51625193081247</v>
       </c>
     </row>
     <row r="13">
@@ -684,22 +684,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0.787453541453937</v>
+        <v>0.776774608583013</v>
       </c>
       <c r="C13" t="n">
-        <v>0.677473499384291</v>
+        <v>0.704247663456363</v>
       </c>
       <c r="D13" t="n">
-        <v>0.716327056307005</v>
+        <v>0.726675724373495</v>
       </c>
       <c r="E13" t="n">
-        <v>0.661454651423632</v>
+        <v>0.681488276664372</v>
       </c>
       <c r="F13" t="n">
-        <v>0.783520584406229</v>
+        <v>0.791065169016267</v>
       </c>
       <c r="G13" t="n">
-        <v>0.649796909351213</v>
+        <v>0.690097897092114</v>
       </c>
     </row>
     <row r="14">
@@ -707,22 +707,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>21.3480320740067</v>
+        <v>20.8982254950445</v>
       </c>
       <c r="C14" t="n">
-        <v>50.1556655858579</v>
+        <v>56.6725772529353</v>
       </c>
       <c r="D14" t="n">
-        <v>37.8346836277125</v>
+        <v>58.2189658600211</v>
       </c>
       <c r="E14" t="n">
-        <v>61.6808612704805</v>
+        <v>60.5863888435703</v>
       </c>
       <c r="F14" t="n">
-        <v>36.8160355164339</v>
+        <v>37.2385730420316</v>
       </c>
       <c r="G14" t="n">
-        <v>42.8944679856808</v>
+        <v>52.5123004947303</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/duration_mean.xlsx
+++ b/xlsx/country_comparison/duration_mean.xlsx
@@ -431,22 +431,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2.24868110890695</v>
+        <v>2.25958673112358</v>
       </c>
       <c r="C2" t="n">
-        <v>2.43443100567682</v>
+        <v>2.46191409890049</v>
       </c>
       <c r="D2" t="n">
-        <v>2.24701697188601</v>
+        <v>2.24718914120466</v>
       </c>
       <c r="E2" t="n">
-        <v>2.40950596325255</v>
+        <v>2.40938933503264</v>
       </c>
       <c r="F2" t="n">
-        <v>2.80524622711549</v>
+        <v>2.75655140729503</v>
       </c>
       <c r="G2" t="n">
-        <v>2.39336203119393</v>
+        <v>2.39319619555305</v>
       </c>
     </row>
     <row r="3">
@@ -454,22 +454,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0518516917749</v>
+        <v>1.07376495844947</v>
       </c>
       <c r="C3" t="n">
-        <v>1.17299371460358</v>
+        <v>1.17462047319702</v>
       </c>
       <c r="D3" t="n">
-        <v>0.957654441169417</v>
+        <v>0.957568272004658</v>
       </c>
       <c r="E3" t="n">
-        <v>1.36379123654585</v>
+        <v>1.36373651305865</v>
       </c>
       <c r="F3" t="n">
-        <v>1.27694897894489</v>
+        <v>1.2940778662577</v>
       </c>
       <c r="G3" t="n">
-        <v>1.06068355456383</v>
+        <v>1.06074235400336</v>
       </c>
     </row>
     <row r="4">
@@ -477,22 +477,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.979468862297182</v>
+        <v>0.996026596020398</v>
       </c>
       <c r="C4" t="n">
-        <v>1.02968415969925</v>
+        <v>1.03394055909663</v>
       </c>
       <c r="D4" t="n">
-        <v>0.904120339166785</v>
+        <v>0.904084222401958</v>
       </c>
       <c r="E4" t="n">
-        <v>1.18738002526439</v>
+        <v>1.1873768387035</v>
       </c>
       <c r="F4" t="n">
-        <v>1.12454233794203</v>
+        <v>1.12193855782083</v>
       </c>
       <c r="G4" t="n">
-        <v>0.894255980262924</v>
+        <v>0.894344851734949</v>
       </c>
     </row>
     <row r="5">
@@ -500,22 +500,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>2.24868110890695</v>
+        <v>2.25958673112358</v>
       </c>
       <c r="C5" t="n">
-        <v>2.43443100567682</v>
+        <v>2.46191409890049</v>
       </c>
       <c r="D5" t="n">
-        <v>2.24701697188601</v>
+        <v>2.24718914120466</v>
       </c>
       <c r="E5" t="n">
-        <v>2.40950596325255</v>
+        <v>2.40938933503264</v>
       </c>
       <c r="F5" t="n">
-        <v>2.80524622711549</v>
+        <v>2.75655140729503</v>
       </c>
       <c r="G5" t="n">
-        <v>2.39336203119393</v>
+        <v>2.39319619555305</v>
       </c>
     </row>
     <row r="6">
@@ -523,22 +523,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.886731723352585</v>
+        <v>0.886803698502162</v>
       </c>
       <c r="C6" t="n">
-        <v>0.743110281293734</v>
+        <v>0.746850718004986</v>
       </c>
       <c r="D6" t="n">
-        <v>0.703287030697029</v>
+        <v>0.70320532343755</v>
       </c>
       <c r="E6" t="n">
-        <v>0.83189866167202</v>
+        <v>0.831858074014431</v>
       </c>
       <c r="F6" t="n">
-        <v>0.789592174663271</v>
+        <v>0.815106491816141</v>
       </c>
       <c r="G6" t="n">
-        <v>0.664324859025918</v>
+        <v>0.664374481919389</v>
       </c>
     </row>
     <row r="7">
@@ -546,22 +546,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.886744543444676</v>
+        <v>0.886816528298668</v>
       </c>
       <c r="C7" t="n">
-        <v>0.743116889711654</v>
+        <v>0.746858090364159</v>
       </c>
       <c r="D7" t="n">
-        <v>0.703296829981412</v>
+        <v>0.703215084062957</v>
       </c>
       <c r="E7" t="n">
-        <v>0.831901632526138</v>
+        <v>0.83186104727707</v>
       </c>
       <c r="F7" t="n">
-        <v>0.789595605395332</v>
+        <v>0.815120394678434</v>
       </c>
       <c r="G7" t="n">
-        <v>0.664339410737752</v>
+        <v>0.664389032051404</v>
       </c>
     </row>
     <row r="8">
@@ -569,22 +569,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>0.460733437592279</v>
+        <v>0.460698943425786</v>
       </c>
       <c r="C8" t="n">
-        <v>0.605195845539918</v>
+        <v>0.607654504239272</v>
       </c>
       <c r="D8" t="n">
-        <v>0.548485462361503</v>
+        <v>0.548466431623169</v>
       </c>
       <c r="E8" t="n">
-        <v>0.637914744320109</v>
+        <v>0.637941870028731</v>
       </c>
       <c r="F8" t="n">
-        <v>0.631040733125385</v>
+        <v>0.638687916821143</v>
       </c>
       <c r="G8" t="n">
-        <v>0.612963590565609</v>
+        <v>0.612982072378553</v>
       </c>
     </row>
     <row r="9">
@@ -592,22 +592,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>1.65092848104108</v>
+        <v>1.56209107209266</v>
       </c>
       <c r="C9" t="n">
-        <v>1.21899920316964</v>
+        <v>1.22390456977372</v>
       </c>
       <c r="D9" t="n">
-        <v>1.15666333808141</v>
+        <v>1.15663814697645</v>
       </c>
       <c r="E9" t="n">
-        <v>1.37594357871119</v>
+        <v>1.375982598971</v>
       </c>
       <c r="F9" t="n">
-        <v>1.09883025762637</v>
+        <v>1.14016338053418</v>
       </c>
       <c r="G9" t="n">
-        <v>1.14829490719684</v>
+        <v>1.1481900398746</v>
       </c>
     </row>
     <row r="10">
@@ -615,22 +615,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>1.61377668013368</v>
+        <v>1.61328825135136</v>
       </c>
       <c r="C10" t="n">
-        <v>2.10875566120335</v>
+        <v>2.10649935242347</v>
       </c>
       <c r="D10" t="n">
-        <v>2.18943531380958</v>
+        <v>2.18925478178313</v>
       </c>
       <c r="E10" t="n">
-        <v>2.20464749984571</v>
+        <v>2.20457240916377</v>
       </c>
       <c r="F10" t="n">
-        <v>2.11990487315432</v>
+        <v>2.08864935203379</v>
       </c>
       <c r="G10" t="n">
-        <v>1.92151866924368</v>
+        <v>1.92158763053788</v>
       </c>
     </row>
     <row r="11">
@@ -638,22 +638,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="n">
-        <v>0.54186408512345</v>
+        <v>0.54150384458374</v>
       </c>
       <c r="C11" t="n">
-        <v>0.66737945357645</v>
+        <v>0.672859219778325</v>
       </c>
       <c r="D11" t="n">
-        <v>0.689114540688384</v>
+        <v>0.689170726575132</v>
       </c>
       <c r="E11" t="n">
-        <v>0.694018161811405</v>
+        <v>0.693976775118029</v>
       </c>
       <c r="F11" t="n">
-        <v>0.722279309336088</v>
+        <v>0.748333112622228</v>
       </c>
       <c r="G11" t="n">
-        <v>0.598130838525481</v>
+        <v>0.59814915179832</v>
       </c>
     </row>
     <row r="12">
@@ -661,22 +661,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>1.23202636934796</v>
+        <v>1.23159404478743</v>
       </c>
       <c r="C12" t="n">
-        <v>1.50864409923911</v>
+        <v>1.51690258839349</v>
       </c>
       <c r="D12" t="n">
-        <v>1.62829069056259</v>
+        <v>1.62840231424943</v>
       </c>
       <c r="E12" t="n">
-        <v>1.42799160201927</v>
+        <v>1.42793769040296</v>
       </c>
       <c r="F12" t="n">
-        <v>1.53679298893415</v>
+        <v>1.56518029622989</v>
       </c>
       <c r="G12" t="n">
-        <v>1.51625193081247</v>
+        <v>1.51606691164961</v>
       </c>
     </row>
     <row r="13">
@@ -684,22 +684,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="n">
-        <v>0.776774608583013</v>
+        <v>0.883509330138942</v>
       </c>
       <c r="C13" t="n">
-        <v>0.704247663456363</v>
+        <v>0.704431489451435</v>
       </c>
       <c r="D13" t="n">
-        <v>0.726675724373495</v>
+        <v>0.726615364023549</v>
       </c>
       <c r="E13" t="n">
-        <v>0.681488276664372</v>
+        <v>0.681426597758531</v>
       </c>
       <c r="F13" t="n">
-        <v>0.791065169016267</v>
+        <v>0.770814167958204</v>
       </c>
       <c r="G13" t="n">
-        <v>0.690097897092114</v>
+        <v>0.690088165673693</v>
       </c>
     </row>
     <row r="14">
@@ -707,22 +707,22 @@
         <v>19</v>
       </c>
       <c r="B14" t="n">
-        <v>20.8982254950445</v>
+        <v>19.1576837058717</v>
       </c>
       <c r="C14" t="n">
-        <v>56.6725772529353</v>
+        <v>56.610156404885</v>
       </c>
       <c r="D14" t="n">
-        <v>58.2189658600211</v>
+        <v>58.2490500114023</v>
       </c>
       <c r="E14" t="n">
-        <v>60.5863888435703</v>
+        <v>60.5781932246989</v>
       </c>
       <c r="F14" t="n">
-        <v>37.2385730420316</v>
+        <v>36.4104147967063</v>
       </c>
       <c r="G14" t="n">
-        <v>52.5123004947303</v>
+        <v>52.5434191563973</v>
       </c>
     </row>
   </sheetData>
